--- a/MCP4922_PSoC4PionnerKit_ピン接続_SPI_Master_Conpornent.xlsx
+++ b/MCP4922_PSoC4PionnerKit_ピン接続_SPI_Master_Conpornent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>MCP4922とPSoC 4 Pionner Kitのピン接続表</t>
     <rPh sb="29" eb="31">
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P0[1]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SCLK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -123,15 +119,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2015.10.16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P0[3]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P0[2]</t>
+    <t>P0[7]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015.10.19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P0[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P0[5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P0[6]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -222,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -310,13 +318,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,6 +432,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,7 +739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -700,7 +756,7 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -711,10 +767,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -728,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -747,12 +803,16 @@
       <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9">
@@ -763,10 +823,10 @@
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -778,10 +838,10 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -815,10 +875,10 @@
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -869,7 +929,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="11"/>
     </row>
